--- a/Code/Results/Cases/Case_3_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9882311320379032</v>
+        <v>1.019476183077629</v>
       </c>
       <c r="D2">
-        <v>1.008692029062713</v>
+        <v>1.025677550897424</v>
       </c>
       <c r="E2">
-        <v>0.9962914397370009</v>
+        <v>1.020606657726835</v>
       </c>
       <c r="F2">
-        <v>0.9642341763336888</v>
+        <v>1.03351062202601</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038746698368308</v>
+        <v>1.029865279986646</v>
       </c>
       <c r="J2">
-        <v>1.010769637726948</v>
+        <v>1.024678733671311</v>
       </c>
       <c r="K2">
-        <v>1.020031583865887</v>
+        <v>1.028502421198872</v>
       </c>
       <c r="L2">
-        <v>1.007802683636211</v>
+        <v>1.023446444933005</v>
       </c>
       <c r="M2">
-        <v>0.9762153457273186</v>
+        <v>1.036312762704638</v>
       </c>
       <c r="N2">
-        <v>1.012205046549419</v>
+        <v>1.026133895005419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9930055124824066</v>
+        <v>1.020446586521331</v>
       </c>
       <c r="D3">
-        <v>1.012400845553393</v>
+        <v>1.026424952079108</v>
       </c>
       <c r="E3">
-        <v>1.000105200414169</v>
+        <v>1.021430123867957</v>
       </c>
       <c r="F3">
-        <v>0.9762138259739166</v>
+        <v>1.035716949087132</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040676190017238</v>
+        <v>1.030133699082489</v>
       </c>
       <c r="J3">
-        <v>1.013688687584009</v>
+        <v>1.025285799240342</v>
       </c>
       <c r="K3">
-        <v>1.022877476459133</v>
+        <v>1.0290573387006</v>
       </c>
       <c r="L3">
-        <v>1.010736735358282</v>
+        <v>1.024076139128947</v>
       </c>
       <c r="M3">
-        <v>0.9871603824154701</v>
+        <v>1.038324360259656</v>
       </c>
       <c r="N3">
-        <v>1.015128241792096</v>
+        <v>1.026741822677188</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9960199221548118</v>
+        <v>1.021074449065226</v>
       </c>
       <c r="D4">
-        <v>1.014738376439587</v>
+        <v>1.026908027233316</v>
       </c>
       <c r="E4">
-        <v>1.002519002908333</v>
+        <v>1.021963307740601</v>
       </c>
       <c r="F4">
-        <v>0.9836139070367731</v>
+        <v>1.037138209544582</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041867116241677</v>
+        <v>1.030305048855544</v>
       </c>
       <c r="J4">
-        <v>1.015525989609249</v>
+        <v>1.025677987872938</v>
       </c>
       <c r="K4">
-        <v>1.02466211793484</v>
+        <v>1.029415204152155</v>
       </c>
       <c r="L4">
-        <v>1.012587120563321</v>
+        <v>1.024483295877081</v>
       </c>
       <c r="M4">
-        <v>0.9939142054134429</v>
+        <v>1.039619299230912</v>
       </c>
       <c r="N4">
-        <v>1.016968152996953</v>
+        <v>1.027134568262627</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9972700993535519</v>
+        <v>1.021338390393287</v>
       </c>
       <c r="D5">
-        <v>1.015706890592626</v>
+        <v>1.02711098247669</v>
       </c>
       <c r="E5">
-        <v>1.003521467404826</v>
+        <v>1.022187541146269</v>
       </c>
       <c r="F5">
-        <v>0.9866480069073869</v>
+        <v>1.037734214019464</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04235472943884</v>
+        <v>1.030376527166899</v>
       </c>
       <c r="J5">
-        <v>1.016286638294066</v>
+        <v>1.025842715198604</v>
       </c>
       <c r="K5">
-        <v>1.02539943037192</v>
+        <v>1.029565363504006</v>
       </c>
       <c r="L5">
-        <v>1.013354038036802</v>
+        <v>1.024654393609589</v>
       </c>
       <c r="M5">
-        <v>0.9966815737977551</v>
+        <v>1.040162119569517</v>
       </c>
       <c r="N5">
-        <v>1.01772988189015</v>
+        <v>1.02729952951999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9974790315426949</v>
+        <v>1.021382706614649</v>
       </c>
       <c r="D6">
-        <v>1.015868696624698</v>
+        <v>1.02714505197304</v>
       </c>
       <c r="E6">
-        <v>1.003689081377367</v>
+        <v>1.022225195783537</v>
       </c>
       <c r="F6">
-        <v>0.9871531289168606</v>
+        <v>1.037834199200496</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042435856090039</v>
+        <v>1.030388496075135</v>
       </c>
       <c r="J6">
-        <v>1.016413681157774</v>
+        <v>1.025870364930161</v>
       </c>
       <c r="K6">
-        <v>1.025522486725246</v>
+        <v>1.029590559095556</v>
       </c>
       <c r="L6">
-        <v>1.013482177475474</v>
+        <v>1.024683117517441</v>
       </c>
       <c r="M6">
-        <v>0.9971421851688874</v>
+        <v>1.040253170224409</v>
       </c>
       <c r="N6">
-        <v>1.017857105169297</v>
+        <v>1.027327218517338</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.996036693119</v>
+        <v>1.021077975908347</v>
       </c>
       <c r="D7">
-        <v>1.014751372588127</v>
+        <v>1.026910739639233</v>
       </c>
       <c r="E7">
-        <v>1.002532445433976</v>
+        <v>1.021966303632235</v>
       </c>
       <c r="F7">
-        <v>0.9836547421241868</v>
+        <v>1.037146179207844</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041873682136717</v>
+        <v>1.030306006138628</v>
       </c>
       <c r="J7">
-        <v>1.015536198890216</v>
+        <v>1.025680189551229</v>
       </c>
       <c r="K7">
-        <v>1.024672020010519</v>
+        <v>1.029417211716291</v>
       </c>
       <c r="L7">
-        <v>1.012597410636469</v>
+        <v>1.024485582371591</v>
       </c>
       <c r="M7">
-        <v>0.9939514576783967</v>
+        <v>1.03962655855705</v>
       </c>
       <c r="N7">
-        <v>1.01697837677627</v>
+        <v>1.027136773067554</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9898607141590349</v>
+        <v>1.019804146940368</v>
       </c>
       <c r="D8">
-        <v>1.009958813659015</v>
+        <v>1.025930251472447</v>
       </c>
       <c r="E8">
-        <v>0.9975918817192165</v>
+        <v>1.020884880298615</v>
       </c>
       <c r="F8">
-        <v>0.9683602685169477</v>
+        <v>1.034257602436111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039411174611946</v>
+        <v>1.02995647820935</v>
       </c>
       <c r="J8">
-        <v>1.011767180361346</v>
+        <v>1.024884023685397</v>
       </c>
       <c r="K8">
-        <v>1.021005555315937</v>
+        <v>1.028690207795383</v>
       </c>
       <c r="L8">
-        <v>1.008804571608652</v>
+        <v>1.02365931479738</v>
       </c>
       <c r="M8">
-        <v>0.9799865898874323</v>
+        <v>1.036993997891865</v>
       </c>
       <c r="N8">
-        <v>1.013204005808777</v>
+        <v>1.026339476554871</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9783606071319055</v>
+        <v>1.017559056061813</v>
       </c>
       <c r="D9">
-        <v>1.000998442909208</v>
+        <v>1.024198317979585</v>
       </c>
       <c r="E9">
-        <v>0.9884413126874581</v>
+        <v>1.018981923107847</v>
       </c>
       <c r="F9">
-        <v>0.9383215344413129</v>
+        <v>1.029117144706772</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034591912037089</v>
+        <v>1.02932258993816</v>
       </c>
       <c r="J9">
-        <v>1.004701351077572</v>
+        <v>1.023476280904734</v>
       </c>
       <c r="K9">
-        <v>1.014075341817559</v>
+        <v>1.027399881174223</v>
       </c>
       <c r="L9">
-        <v>1.001724747257672</v>
+        <v>1.022201034104683</v>
       </c>
       <c r="M9">
-        <v>0.9525013948352447</v>
+        <v>1.0323023399405</v>
       </c>
       <c r="N9">
-        <v>1.006128142236958</v>
+        <v>1.024929734617989</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9702087385494548</v>
+        <v>1.016061981714906</v>
       </c>
       <c r="D10">
-        <v>0.9946152150645806</v>
+        <v>1.023040837776893</v>
       </c>
       <c r="E10">
-        <v>0.9819906800477238</v>
+        <v>1.017715057668187</v>
       </c>
       <c r="F10">
-        <v>0.9155168167867711</v>
+        <v>1.025654089861128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030988992132993</v>
+        <v>1.028887783089274</v>
       </c>
       <c r="J10">
-        <v>0.9996563141811075</v>
+        <v>1.022534525388574</v>
       </c>
       <c r="K10">
-        <v>1.009082378890339</v>
+        <v>1.026533385995896</v>
       </c>
       <c r="L10">
-        <v>0.9966928939019737</v>
+        <v>1.021227284021351</v>
       </c>
       <c r="M10">
-        <v>0.9315995912703582</v>
+        <v>1.029137065030688</v>
       </c>
       <c r="N10">
-        <v>1.001075940809426</v>
+        <v>1.023986641700975</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9665444091001405</v>
+        <v>1.015413637093642</v>
       </c>
       <c r="D11">
-        <v>0.99173581491486</v>
+        <v>1.022538947287413</v>
       </c>
       <c r="E11">
-        <v>0.9791000271101242</v>
+        <v>1.017166908190815</v>
       </c>
       <c r="F11">
-        <v>0.9047625793070484</v>
+        <v>1.02414549782527</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029315986760328</v>
+        <v>1.028696579903233</v>
       </c>
       <c r="J11">
-        <v>0.9973783920018067</v>
+        <v>1.022125952521608</v>
       </c>
       <c r="K11">
-        <v>1.006815282826922</v>
+        <v>1.026156681210696</v>
       </c>
       <c r="L11">
-        <v>0.9944271507099535</v>
+        <v>1.020805262675869</v>
       </c>
       <c r="M11">
-        <v>0.9217356213541312</v>
+        <v>1.027757111595716</v>
       </c>
       <c r="N11">
-        <v>0.99879478371935</v>
+        <v>1.023577488613674</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9651610567204927</v>
+        <v>1.015172796557848</v>
       </c>
       <c r="D12">
-        <v>0.9906469424392592</v>
+        <v>1.022352417470139</v>
       </c>
       <c r="E12">
-        <v>0.9780101276346418</v>
+        <v>1.016963362507265</v>
       </c>
       <c r="F12">
-        <v>0.9006100323317628</v>
+        <v>1.02358373461059</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028675275104671</v>
+        <v>1.028625115795893</v>
       </c>
       <c r="J12">
-        <v>0.9965167193553245</v>
+        <v>1.021974071308858</v>
       </c>
       <c r="K12">
-        <v>1.005955553120952</v>
+        <v>1.026016528595134</v>
       </c>
       <c r="L12">
-        <v>0.993571103295666</v>
+        <v>1.020648447259912</v>
       </c>
       <c r="M12">
-        <v>0.9179259306662702</v>
+        <v>1.027243087983141</v>
       </c>
       <c r="N12">
-        <v>0.9979318873988746</v>
+        <v>1.023425391712181</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9654588352508364</v>
+        <v>1.015224458435847</v>
       </c>
       <c r="D13">
-        <v>0.9908814215834442</v>
+        <v>1.022392433534128</v>
       </c>
       <c r="E13">
-        <v>0.9782446754379241</v>
+        <v>1.017007020973919</v>
       </c>
       <c r="F13">
-        <v>0.9015084152875644</v>
+        <v>1.023704299000578</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028813626846109</v>
+        <v>1.028640465167855</v>
       </c>
       <c r="J13">
-        <v>0.9967022830968311</v>
+        <v>1.022006655746916</v>
       </c>
       <c r="K13">
-        <v>1.006140800387515</v>
+        <v>1.026046602131997</v>
       </c>
       <c r="L13">
-        <v>0.9937554080869705</v>
+        <v>1.020682087329508</v>
       </c>
       <c r="M13">
-        <v>0.9187501758784733</v>
+        <v>1.027353413942931</v>
       </c>
       <c r="N13">
-        <v>0.9981177146621786</v>
+        <v>1.023458022423879</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9664305281640166</v>
+        <v>1.015393729483106</v>
       </c>
       <c r="D14">
-        <v>0.9916462160696959</v>
+        <v>1.022523530829972</v>
       </c>
       <c r="E14">
-        <v>0.9790102758838319</v>
+        <v>1.017150081790235</v>
       </c>
       <c r="F14">
-        <v>0.9044227276421029</v>
+        <v>1.024099091214166</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029263434415751</v>
+        <v>1.028690681705189</v>
       </c>
       <c r="J14">
-        <v>0.9973074931684588</v>
+        <v>1.022113400407231</v>
       </c>
       <c r="K14">
-        <v>1.00674458920373</v>
+        <v>1.026145100804343</v>
       </c>
       <c r="L14">
-        <v>0.9943566935132842</v>
+        <v>1.020792301449563</v>
       </c>
       <c r="M14">
-        <v>0.9214238467392807</v>
+        <v>1.027714652005192</v>
       </c>
       <c r="N14">
-        <v>0.9987237842015264</v>
+        <v>1.023564918673854</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9670262025097996</v>
+        <v>1.015498020741676</v>
       </c>
       <c r="D15">
-        <v>0.9921148012982608</v>
+        <v>1.022604290208312</v>
       </c>
       <c r="E15">
-        <v>0.9794797916343102</v>
+        <v>1.017238234409383</v>
       </c>
       <c r="F15">
-        <v>0.9061964993051299</v>
+        <v>1.024342148260511</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029537940313871</v>
+        <v>1.028721563023522</v>
       </c>
       <c r="J15">
-        <v>0.9976782709540692</v>
+        <v>1.022179153511761</v>
       </c>
       <c r="K15">
-        <v>1.007114204657497</v>
+        <v>1.026205758876155</v>
       </c>
       <c r="L15">
-        <v>0.9947252036257043</v>
+        <v>1.020860200314846</v>
       </c>
       <c r="M15">
-        <v>0.9230510418563089</v>
+        <v>1.027937029686626</v>
       </c>
       <c r="N15">
-        <v>0.9990950885341212</v>
+        <v>1.023630765155336</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.970448928309582</v>
+        <v>1.016105007969346</v>
       </c>
       <c r="D16">
-        <v>0.9948037197476738</v>
+        <v>1.023074131883803</v>
       </c>
       <c r="E16">
-        <v>0.9821803454018563</v>
+        <v>1.017751445182461</v>
       </c>
       <c r="F16">
-        <v>0.9162099731238322</v>
+        <v>1.025754015488661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031097460863993</v>
+        <v>1.028900410677338</v>
       </c>
       <c r="J16">
-        <v>0.9998054026520757</v>
+        <v>1.022561624377748</v>
       </c>
       <c r="K16">
-        <v>1.009230477043501</v>
+        <v>1.02655835479611</v>
       </c>
       <c r="L16">
-        <v>0.9968413206741207</v>
+        <v>1.021255284104481</v>
       </c>
       <c r="M16">
-        <v>0.9322352341889512</v>
+        <v>1.029228447218378</v>
       </c>
       <c r="N16">
-        <v>1.001225241003124</v>
+        <v>1.024013779173822</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9725585764552909</v>
+        <v>1.016485726982882</v>
       </c>
       <c r="D17">
-        <v>0.996458235943818</v>
+        <v>1.023368664617649</v>
       </c>
       <c r="E17">
-        <v>0.9838472439366934</v>
+        <v>1.018073478669456</v>
       </c>
       <c r="F17">
-        <v>0.9222396639583277</v>
+        <v>1.026637185166668</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032044022003877</v>
+        <v>1.029011811043871</v>
       </c>
       <c r="J17">
-        <v>1.001113721641459</v>
+        <v>1.02280132705504</v>
       </c>
       <c r="K17">
-        <v>1.010528651409606</v>
+        <v>1.026779124604173</v>
       </c>
       <c r="L17">
-        <v>0.9981445437112307</v>
+        <v>1.021503007247487</v>
       </c>
       <c r="M17">
-        <v>0.9377638529579686</v>
+        <v>1.030035983128468</v>
       </c>
       <c r="N17">
-        <v>1.002535417955538</v>
+        <v>1.024253822256411</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9737762764995294</v>
+        <v>1.016707784229648</v>
       </c>
       <c r="D18">
-        <v>0.9974123063243626</v>
+        <v>1.023540393702046</v>
       </c>
       <c r="E18">
-        <v>0.9848102300054598</v>
+        <v>1.018261355099393</v>
       </c>
       <c r="F18">
-        <v>0.9256738782166706</v>
+        <v>1.02715145125065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032585424136796</v>
+        <v>1.02907650657708</v>
       </c>
       <c r="J18">
-        <v>1.001867949385278</v>
+        <v>1.022941065747235</v>
       </c>
       <c r="K18">
-        <v>1.011275856728614</v>
+        <v>1.026907750620852</v>
       </c>
       <c r="L18">
-        <v>0.9988964130929273</v>
+        <v>1.021647463237453</v>
       </c>
       <c r="M18">
-        <v>0.9409120183919333</v>
+        <v>1.030506103972261</v>
       </c>
       <c r="N18">
-        <v>1.003290716789266</v>
+        <v>1.024393759393576</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.974189361693174</v>
+        <v>1.016783498400758</v>
       </c>
       <c r="D19">
-        <v>0.9977358104517722</v>
+        <v>1.023598937570322</v>
       </c>
       <c r="E19">
-        <v>0.9851370496002928</v>
+        <v>1.018325422859546</v>
       </c>
       <c r="F19">
-        <v>0.9268314789626053</v>
+        <v>1.027326656099642</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032768272329214</v>
+        <v>1.029098518259598</v>
       </c>
       <c r="J19">
-        <v>1.002123654076805</v>
+        <v>1.022988700195174</v>
       </c>
       <c r="K19">
-        <v>1.011528987577438</v>
+        <v>1.026951584166106</v>
       </c>
       <c r="L19">
-        <v>0.9991514144080391</v>
+        <v>1.021696712785632</v>
       </c>
       <c r="M19">
-        <v>0.9419730816484041</v>
+        <v>1.030666251371573</v>
       </c>
       <c r="N19">
-        <v>1.003546784610784</v>
+        <v>1.024441461487895</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9723335709256893</v>
+        <v>1.016444880449385</v>
       </c>
       <c r="D20">
-        <v>0.9962818707758122</v>
+        <v>1.023337070967965</v>
       </c>
       <c r="E20">
-        <v>0.9836693722420145</v>
+        <v>1.018038923415953</v>
       </c>
       <c r="F20">
-        <v>0.9216014626929206</v>
+        <v>1.026542519905386</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031943587652042</v>
+        <v>1.028999888069771</v>
       </c>
       <c r="J20">
-        <v>1.000974281112896</v>
+        <v>1.022775617075642</v>
       </c>
       <c r="K20">
-        <v>1.010390415602566</v>
+        <v>1.026755453129435</v>
       </c>
       <c r="L20">
-        <v>0.9980055855944058</v>
+        <v>1.021476432702313</v>
       </c>
       <c r="M20">
-        <v>0.937178754917399</v>
+        <v>1.029949435669071</v>
       </c>
       <c r="N20">
-        <v>1.002395779405431</v>
+        <v>1.024228075765893</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.966145021808104</v>
+        <v>1.015343883843439</v>
       </c>
       <c r="D21">
-        <v>0.9914215553412814</v>
+        <v>1.022484928860829</v>
       </c>
       <c r="E21">
-        <v>0.978785286375626</v>
+        <v>1.017107952252913</v>
       </c>
       <c r="F21">
-        <v>0.9035691416597188</v>
+        <v>1.023982873878937</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029131531452788</v>
+        <v>1.028675906430006</v>
       </c>
       <c r="J21">
-        <v>0.9971297171598815</v>
+        <v>1.022081970059246</v>
       </c>
       <c r="K21">
-        <v>1.006567292163</v>
+        <v>1.026116101696484</v>
       </c>
       <c r="L21">
-        <v>0.9941800415892736</v>
+        <v>1.020759847741751</v>
       </c>
       <c r="M21">
-        <v>0.9206407664620594</v>
+        <v>1.027608316681085</v>
       </c>
       <c r="N21">
-        <v>0.9985457557306255</v>
+        <v>1.023533443691171</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9621239029425539</v>
+        <v>1.014651547624334</v>
       </c>
       <c r="D22">
-        <v>0.988252432819027</v>
+        <v>1.021948543239114</v>
       </c>
       <c r="E22">
-        <v>0.9756198066506686</v>
+        <v>1.016522968973869</v>
       </c>
       <c r="F22">
-        <v>0.8912984726329194</v>
+        <v>1.02236537235518</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027250237755494</v>
+        <v>1.028469643431642</v>
       </c>
       <c r="J22">
-        <v>0.9946214720587396</v>
+        <v>1.021645157346518</v>
       </c>
       <c r="K22">
-        <v>1.004060259607474</v>
+        <v>1.025712798063786</v>
       </c>
       <c r="L22">
-        <v>0.9916902214653279</v>
+        <v>1.020308967018603</v>
       </c>
       <c r="M22">
-        <v>0.9093817292450913</v>
+        <v>1.026127967340579</v>
       </c>
       <c r="N22">
-        <v>0.9960339486337407</v>
+        <v>1.023096010654287</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9642687130906504</v>
+        <v>1.015018577664565</v>
       </c>
       <c r="D23">
-        <v>0.9899439827230171</v>
+        <v>1.022232949608591</v>
       </c>
       <c r="E23">
-        <v>0.9773074687345478</v>
+        <v>1.016833046148152</v>
       </c>
       <c r="F23">
-        <v>0.8979026746418295</v>
+        <v>1.023223627595889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028259239085291</v>
+        <v>1.028579231195812</v>
       </c>
       <c r="J23">
-        <v>0.9959603758340342</v>
+        <v>1.021876785675314</v>
       </c>
       <c r="K23">
-        <v>1.005399819237569</v>
+        <v>1.025926722337779</v>
       </c>
       <c r="L23">
-        <v>0.9930186913072357</v>
+        <v>1.020548019425556</v>
       </c>
       <c r="M23">
-        <v>0.9154418766652546</v>
+        <v>1.026913537808795</v>
       </c>
       <c r="N23">
-        <v>0.9973747538059703</v>
+        <v>1.023327967921879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9724352807142426</v>
+        <v>1.016463337270131</v>
       </c>
       <c r="D24">
-        <v>0.996361596393585</v>
+        <v>1.023351346985338</v>
       </c>
       <c r="E24">
-        <v>0.983749773394782</v>
+        <v>1.018054537325214</v>
       </c>
       <c r="F24">
-        <v>0.9218900923953827</v>
+        <v>1.026585297754383</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03198900254466</v>
+        <v>1.029005276421248</v>
       </c>
       <c r="J24">
-        <v>1.001037315656076</v>
+        <v>1.022787234543259</v>
       </c>
       <c r="K24">
-        <v>1.010452909176559</v>
+        <v>1.02676614969911</v>
       </c>
       <c r="L24">
-        <v>0.998068400268407</v>
+        <v>1.021488440709203</v>
       </c>
       <c r="M24">
-        <v>0.937443370502136</v>
+        <v>1.029988545523612</v>
       </c>
       <c r="N24">
-        <v>1.002458903464893</v>
+        <v>1.024239709731646</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9814134249702789</v>
+        <v>1.018139523248009</v>
       </c>
       <c r="D25">
-        <v>1.003381845470672</v>
+        <v>1.02464656477325</v>
       </c>
       <c r="E25">
-        <v>0.9908644655327625</v>
+        <v>1.019473569989327</v>
       </c>
       <c r="F25">
-        <v>0.9465161519458241</v>
+        <v>1.030452273543295</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035900818938568</v>
+        <v>1.029488608508511</v>
       </c>
       <c r="J25">
-        <v>1.006582910718448</v>
+        <v>1.023840788115297</v>
       </c>
       <c r="K25">
-        <v>1.015927888512107</v>
+        <v>1.027734563689688</v>
       </c>
       <c r="L25">
-        <v>1.003606273908159</v>
+        <v>1.022578308370808</v>
       </c>
       <c r="M25">
-        <v>0.9600056496578628</v>
+        <v>1.0335217046009</v>
       </c>
       <c r="N25">
-        <v>1.008012373908342</v>
+        <v>1.0252947594706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_66/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_66/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019476183077629</v>
+        <v>0.9882311320379039</v>
       </c>
       <c r="D2">
-        <v>1.025677550897424</v>
+        <v>1.008692029062714</v>
       </c>
       <c r="E2">
-        <v>1.020606657726835</v>
+        <v>0.9962914397370015</v>
       </c>
       <c r="F2">
-        <v>1.03351062202601</v>
+        <v>0.9642341763336888</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029865279986646</v>
+        <v>1.038746698368309</v>
       </c>
       <c r="J2">
-        <v>1.024678733671311</v>
+        <v>1.010769637726949</v>
       </c>
       <c r="K2">
-        <v>1.028502421198872</v>
+        <v>1.020031583865888</v>
       </c>
       <c r="L2">
-        <v>1.023446444933005</v>
+        <v>1.007802683636212</v>
       </c>
       <c r="M2">
-        <v>1.036312762704638</v>
+        <v>0.9762153457273188</v>
       </c>
       <c r="N2">
-        <v>1.026133895005419</v>
+        <v>1.012205046549419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020446586521331</v>
+        <v>0.9930055124824071</v>
       </c>
       <c r="D3">
-        <v>1.026424952079108</v>
+        <v>1.012400845553394</v>
       </c>
       <c r="E3">
-        <v>1.021430123867957</v>
+        <v>1.00010520041417</v>
       </c>
       <c r="F3">
-        <v>1.035716949087132</v>
+        <v>0.9762138259739168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030133699082489</v>
+        <v>1.040676190017238</v>
       </c>
       <c r="J3">
-        <v>1.025285799240342</v>
+        <v>1.013688687584009</v>
       </c>
       <c r="K3">
-        <v>1.0290573387006</v>
+        <v>1.022877476459134</v>
       </c>
       <c r="L3">
-        <v>1.024076139128947</v>
+        <v>1.010736735358283</v>
       </c>
       <c r="M3">
-        <v>1.038324360259656</v>
+        <v>0.9871603824154701</v>
       </c>
       <c r="N3">
-        <v>1.026741822677188</v>
+        <v>1.015128241792096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021074449065226</v>
+        <v>0.9960199221548122</v>
       </c>
       <c r="D4">
-        <v>1.026908027233316</v>
+        <v>1.014738376439587</v>
       </c>
       <c r="E4">
-        <v>1.021963307740601</v>
+        <v>1.002519002908333</v>
       </c>
       <c r="F4">
-        <v>1.037138209544582</v>
+        <v>0.9836139070367729</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030305048855544</v>
+        <v>1.041867116241677</v>
       </c>
       <c r="J4">
-        <v>1.025677987872938</v>
+        <v>1.015525989609249</v>
       </c>
       <c r="K4">
-        <v>1.029415204152155</v>
+        <v>1.02466211793484</v>
       </c>
       <c r="L4">
-        <v>1.024483295877081</v>
+        <v>1.012587120563321</v>
       </c>
       <c r="M4">
-        <v>1.039619299230912</v>
+        <v>0.9939142054134428</v>
       </c>
       <c r="N4">
-        <v>1.027134568262627</v>
+        <v>1.016968152996953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021338390393287</v>
+        <v>0.9972700993535514</v>
       </c>
       <c r="D5">
-        <v>1.02711098247669</v>
+        <v>1.015706890592625</v>
       </c>
       <c r="E5">
-        <v>1.022187541146269</v>
+        <v>1.003521467404826</v>
       </c>
       <c r="F5">
-        <v>1.037734214019464</v>
+        <v>0.986648006907385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030376527166899</v>
+        <v>1.04235472943884</v>
       </c>
       <c r="J5">
-        <v>1.025842715198604</v>
+        <v>1.016286638294065</v>
       </c>
       <c r="K5">
-        <v>1.029565363504006</v>
+        <v>1.02539943037192</v>
       </c>
       <c r="L5">
-        <v>1.024654393609589</v>
+        <v>1.013354038036801</v>
       </c>
       <c r="M5">
-        <v>1.040162119569517</v>
+        <v>0.9966815737977536</v>
       </c>
       <c r="N5">
-        <v>1.02729952951999</v>
+        <v>1.01772988189015</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021382706614649</v>
+        <v>0.9974790315426951</v>
       </c>
       <c r="D6">
-        <v>1.02714505197304</v>
+        <v>1.015868696624699</v>
       </c>
       <c r="E6">
-        <v>1.022225195783537</v>
+        <v>1.003689081377367</v>
       </c>
       <c r="F6">
-        <v>1.037834199200496</v>
+        <v>0.9871531289168608</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030388496075135</v>
+        <v>1.04243585609004</v>
       </c>
       <c r="J6">
-        <v>1.025870364930161</v>
+        <v>1.016413681157775</v>
       </c>
       <c r="K6">
-        <v>1.029590559095556</v>
+        <v>1.025522486725246</v>
       </c>
       <c r="L6">
-        <v>1.024683117517441</v>
+        <v>1.013482177475474</v>
       </c>
       <c r="M6">
-        <v>1.040253170224409</v>
+        <v>0.9971421851688879</v>
       </c>
       <c r="N6">
-        <v>1.027327218517338</v>
+        <v>1.017857105169298</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.021077975908347</v>
+        <v>0.9960366931189998</v>
       </c>
       <c r="D7">
-        <v>1.026910739639233</v>
+        <v>1.014751372588126</v>
       </c>
       <c r="E7">
-        <v>1.021966303632235</v>
+        <v>1.002532445433976</v>
       </c>
       <c r="F7">
-        <v>1.037146179207844</v>
+        <v>0.9836547421241852</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030306006138628</v>
+        <v>1.041873682136717</v>
       </c>
       <c r="J7">
-        <v>1.025680189551229</v>
+        <v>1.015536198890216</v>
       </c>
       <c r="K7">
-        <v>1.029417211716291</v>
+        <v>1.024672020010519</v>
       </c>
       <c r="L7">
-        <v>1.024485582371591</v>
+        <v>1.012597410636469</v>
       </c>
       <c r="M7">
-        <v>1.03962655855705</v>
+        <v>0.9939514576783954</v>
       </c>
       <c r="N7">
-        <v>1.027136773067554</v>
+        <v>1.01697837677627</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019804146940368</v>
+        <v>0.9898607141590355</v>
       </c>
       <c r="D8">
-        <v>1.025930251472447</v>
+        <v>1.009958813659015</v>
       </c>
       <c r="E8">
-        <v>1.020884880298615</v>
+        <v>0.9975918817192173</v>
       </c>
       <c r="F8">
-        <v>1.034257602436111</v>
+        <v>0.9683602685169486</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02995647820935</v>
+        <v>1.039411174611947</v>
       </c>
       <c r="J8">
-        <v>1.024884023685397</v>
+        <v>1.011767180361346</v>
       </c>
       <c r="K8">
-        <v>1.028690207795383</v>
+        <v>1.021005555315937</v>
       </c>
       <c r="L8">
-        <v>1.02365931479738</v>
+        <v>1.008804571608652</v>
       </c>
       <c r="M8">
-        <v>1.036993997891865</v>
+        <v>0.9799865898874331</v>
       </c>
       <c r="N8">
-        <v>1.026339476554871</v>
+        <v>1.013204005808777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017559056061813</v>
+        <v>0.9783606071319058</v>
       </c>
       <c r="D9">
-        <v>1.024198317979585</v>
+        <v>1.000998442909208</v>
       </c>
       <c r="E9">
-        <v>1.018981923107847</v>
+        <v>0.9884413126874579</v>
       </c>
       <c r="F9">
-        <v>1.029117144706772</v>
+        <v>0.9383215344413136</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02932258993816</v>
+        <v>1.034591912037089</v>
       </c>
       <c r="J9">
-        <v>1.023476280904734</v>
+        <v>1.004701351077572</v>
       </c>
       <c r="K9">
-        <v>1.027399881174223</v>
+        <v>1.014075341817559</v>
       </c>
       <c r="L9">
-        <v>1.022201034104683</v>
+        <v>1.001724747257672</v>
       </c>
       <c r="M9">
-        <v>1.0323023399405</v>
+        <v>0.9525013948352452</v>
       </c>
       <c r="N9">
-        <v>1.024929734617989</v>
+        <v>1.006128142236958</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016061981714906</v>
+        <v>0.9702087385494552</v>
       </c>
       <c r="D10">
-        <v>1.023040837776893</v>
+        <v>0.9946152150645811</v>
       </c>
       <c r="E10">
-        <v>1.017715057668187</v>
+        <v>0.9819906800477242</v>
       </c>
       <c r="F10">
-        <v>1.025654089861128</v>
+        <v>0.915516816786771</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028887783089274</v>
+        <v>1.030988992132993</v>
       </c>
       <c r="J10">
-        <v>1.022534525388574</v>
+        <v>0.9996563141811079</v>
       </c>
       <c r="K10">
-        <v>1.026533385995896</v>
+        <v>1.009082378890339</v>
       </c>
       <c r="L10">
-        <v>1.021227284021351</v>
+        <v>0.9966928939019742</v>
       </c>
       <c r="M10">
-        <v>1.029137065030688</v>
+        <v>0.931599591270358</v>
       </c>
       <c r="N10">
-        <v>1.023986641700975</v>
+        <v>1.001075940809427</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015413637093642</v>
+        <v>0.9665444091001399</v>
       </c>
       <c r="D11">
-        <v>1.022538947287413</v>
+        <v>0.9917358149148597</v>
       </c>
       <c r="E11">
-        <v>1.017166908190815</v>
+        <v>0.9791000271101237</v>
       </c>
       <c r="F11">
-        <v>1.02414549782527</v>
+        <v>0.9047625793070488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028696579903233</v>
+        <v>1.029315986760328</v>
       </c>
       <c r="J11">
-        <v>1.022125952521608</v>
+        <v>0.9973783920018064</v>
       </c>
       <c r="K11">
-        <v>1.026156681210696</v>
+        <v>1.006815282826922</v>
       </c>
       <c r="L11">
-        <v>1.020805262675869</v>
+        <v>0.9944271507099529</v>
       </c>
       <c r="M11">
-        <v>1.027757111595716</v>
+        <v>0.9217356213541316</v>
       </c>
       <c r="N11">
-        <v>1.023577488613674</v>
+        <v>0.9987947837193497</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015172796557848</v>
+        <v>0.9651610567204928</v>
       </c>
       <c r="D12">
-        <v>1.022352417470139</v>
+        <v>0.9906469424392595</v>
       </c>
       <c r="E12">
-        <v>1.016963362507265</v>
+        <v>0.9780101276346422</v>
       </c>
       <c r="F12">
-        <v>1.02358373461059</v>
+        <v>0.9006100323317635</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028625115795893</v>
+        <v>1.028675275104671</v>
       </c>
       <c r="J12">
-        <v>1.021974071308858</v>
+        <v>0.9965167193553248</v>
       </c>
       <c r="K12">
-        <v>1.026016528595134</v>
+        <v>1.005955553120953</v>
       </c>
       <c r="L12">
-        <v>1.020648447259912</v>
+        <v>0.9935711032956663</v>
       </c>
       <c r="M12">
-        <v>1.027243087983141</v>
+        <v>0.9179259306662709</v>
       </c>
       <c r="N12">
-        <v>1.023425391712181</v>
+        <v>0.997931887398875</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015224458435847</v>
+        <v>0.9654588352508363</v>
       </c>
       <c r="D13">
-        <v>1.022392433534128</v>
+        <v>0.9908814215834442</v>
       </c>
       <c r="E13">
-        <v>1.017007020973919</v>
+        <v>0.9782446754379237</v>
       </c>
       <c r="F13">
-        <v>1.023704299000578</v>
+        <v>0.9015084152875646</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028640465167855</v>
+        <v>1.028813626846108</v>
       </c>
       <c r="J13">
-        <v>1.022006655746916</v>
+        <v>0.996702283096831</v>
       </c>
       <c r="K13">
-        <v>1.026046602131997</v>
+        <v>1.006140800387515</v>
       </c>
       <c r="L13">
-        <v>1.020682087329508</v>
+        <v>0.9937554080869698</v>
       </c>
       <c r="M13">
-        <v>1.027353413942931</v>
+        <v>0.9187501758784735</v>
       </c>
       <c r="N13">
-        <v>1.023458022423879</v>
+        <v>0.9981177146621781</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015393729483106</v>
+        <v>0.9664305281640171</v>
       </c>
       <c r="D14">
-        <v>1.022523530829972</v>
+        <v>0.9916462160696963</v>
       </c>
       <c r="E14">
-        <v>1.017150081790235</v>
+        <v>0.979010275883832</v>
       </c>
       <c r="F14">
-        <v>1.024099091214166</v>
+        <v>0.904422727642103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028690681705189</v>
+        <v>1.029263434415751</v>
       </c>
       <c r="J14">
-        <v>1.022113400407231</v>
+        <v>0.9973074931684589</v>
       </c>
       <c r="K14">
-        <v>1.026145100804343</v>
+        <v>1.00674458920373</v>
       </c>
       <c r="L14">
-        <v>1.020792301449563</v>
+        <v>0.9943566935132843</v>
       </c>
       <c r="M14">
-        <v>1.027714652005192</v>
+        <v>0.9214238467392808</v>
       </c>
       <c r="N14">
-        <v>1.023564918673854</v>
+        <v>0.9987237842015267</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015498020741676</v>
+        <v>0.9670262025098002</v>
       </c>
       <c r="D15">
-        <v>1.022604290208312</v>
+        <v>0.992114801298261</v>
       </c>
       <c r="E15">
-        <v>1.017238234409383</v>
+        <v>0.9794797916343109</v>
       </c>
       <c r="F15">
-        <v>1.024342148260511</v>
+        <v>0.9061964993051292</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028721563023522</v>
+        <v>1.029537940313871</v>
       </c>
       <c r="J15">
-        <v>1.022179153511761</v>
+        <v>0.9976782709540698</v>
       </c>
       <c r="K15">
-        <v>1.026205758876155</v>
+        <v>1.007114204657497</v>
       </c>
       <c r="L15">
-        <v>1.020860200314846</v>
+        <v>0.9947252036257049</v>
       </c>
       <c r="M15">
-        <v>1.027937029686626</v>
+        <v>0.9230510418563083</v>
       </c>
       <c r="N15">
-        <v>1.023630765155336</v>
+        <v>0.9990950885341218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016105007969346</v>
+        <v>0.970448928309582</v>
       </c>
       <c r="D16">
-        <v>1.023074131883803</v>
+        <v>0.9948037197476738</v>
       </c>
       <c r="E16">
-        <v>1.017751445182461</v>
+        <v>0.9821803454018563</v>
       </c>
       <c r="F16">
-        <v>1.025754015488661</v>
+        <v>0.9162099731238308</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028900410677338</v>
+        <v>1.031097460863993</v>
       </c>
       <c r="J16">
-        <v>1.022561624377748</v>
+        <v>0.9998054026520757</v>
       </c>
       <c r="K16">
-        <v>1.02655835479611</v>
+        <v>1.009230477043501</v>
       </c>
       <c r="L16">
-        <v>1.021255284104481</v>
+        <v>0.9968413206741207</v>
       </c>
       <c r="M16">
-        <v>1.029228447218378</v>
+        <v>0.9322352341889496</v>
       </c>
       <c r="N16">
-        <v>1.024013779173822</v>
+        <v>1.001225241003124</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016485726982882</v>
+        <v>0.9725585764552911</v>
       </c>
       <c r="D17">
-        <v>1.023368664617649</v>
+        <v>0.9964582359438182</v>
       </c>
       <c r="E17">
-        <v>1.018073478669456</v>
+        <v>0.9838472439366936</v>
       </c>
       <c r="F17">
-        <v>1.026637185166668</v>
+        <v>0.9222396639583283</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029011811043871</v>
+        <v>1.032044022003878</v>
       </c>
       <c r="J17">
-        <v>1.02280132705504</v>
+        <v>1.001113721641459</v>
       </c>
       <c r="K17">
-        <v>1.026779124604173</v>
+        <v>1.010528651409606</v>
       </c>
       <c r="L17">
-        <v>1.021503007247487</v>
+        <v>0.9981445437112311</v>
       </c>
       <c r="M17">
-        <v>1.030035983128468</v>
+        <v>0.9377638529579694</v>
       </c>
       <c r="N17">
-        <v>1.024253822256411</v>
+        <v>1.002535417955539</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016707784229648</v>
+        <v>0.973776276499529</v>
       </c>
       <c r="D18">
-        <v>1.023540393702046</v>
+        <v>0.9974123063243624</v>
       </c>
       <c r="E18">
-        <v>1.018261355099393</v>
+        <v>0.9848102300054594</v>
       </c>
       <c r="F18">
-        <v>1.02715145125065</v>
+        <v>0.9256738782166709</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02907650657708</v>
+        <v>1.032585424136796</v>
       </c>
       <c r="J18">
-        <v>1.022941065747235</v>
+        <v>1.001867949385278</v>
       </c>
       <c r="K18">
-        <v>1.026907750620852</v>
+        <v>1.011275856728614</v>
       </c>
       <c r="L18">
-        <v>1.021647463237453</v>
+        <v>0.998896413092927</v>
       </c>
       <c r="M18">
-        <v>1.030506103972261</v>
+        <v>0.9409120183919336</v>
       </c>
       <c r="N18">
-        <v>1.024393759393576</v>
+        <v>1.003290716789265</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016783498400758</v>
+        <v>0.9741893616931736</v>
       </c>
       <c r="D19">
-        <v>1.023598937570322</v>
+        <v>0.997735810451772</v>
       </c>
       <c r="E19">
-        <v>1.018325422859546</v>
+        <v>0.9851370496002921</v>
       </c>
       <c r="F19">
-        <v>1.027326656099642</v>
+        <v>0.9268314789626044</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029098518259598</v>
+        <v>1.032768272329213</v>
       </c>
       <c r="J19">
-        <v>1.022988700195174</v>
+        <v>1.002123654076804</v>
       </c>
       <c r="K19">
-        <v>1.026951584166106</v>
+        <v>1.011528987577438</v>
       </c>
       <c r="L19">
-        <v>1.021696712785632</v>
+        <v>0.9991514144080385</v>
       </c>
       <c r="M19">
-        <v>1.030666251371573</v>
+        <v>0.9419730816484033</v>
       </c>
       <c r="N19">
-        <v>1.024441461487895</v>
+        <v>1.003546784610783</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016444880449385</v>
+        <v>0.9723335709256881</v>
       </c>
       <c r="D20">
-        <v>1.023337070967965</v>
+        <v>0.9962818707758111</v>
       </c>
       <c r="E20">
-        <v>1.018038923415953</v>
+        <v>0.9836693722420135</v>
       </c>
       <c r="F20">
-        <v>1.026542519905386</v>
+        <v>0.9216014626929212</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028999888069771</v>
+        <v>1.031943587652041</v>
       </c>
       <c r="J20">
-        <v>1.022775617075642</v>
+        <v>1.000974281112895</v>
       </c>
       <c r="K20">
-        <v>1.026755453129435</v>
+        <v>1.010390415602565</v>
       </c>
       <c r="L20">
-        <v>1.021476432702313</v>
+        <v>0.9980055855944048</v>
       </c>
       <c r="M20">
-        <v>1.029949435669071</v>
+        <v>0.9371787549173993</v>
       </c>
       <c r="N20">
-        <v>1.024228075765893</v>
+        <v>1.00239577940543</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015343883843439</v>
+        <v>0.9661450218081041</v>
       </c>
       <c r="D21">
-        <v>1.022484928860829</v>
+        <v>0.9914215553412816</v>
       </c>
       <c r="E21">
-        <v>1.017107952252913</v>
+        <v>0.978785286375626</v>
       </c>
       <c r="F21">
-        <v>1.023982873878937</v>
+        <v>0.9035691416597189</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028675906430006</v>
+        <v>1.029131531452789</v>
       </c>
       <c r="J21">
-        <v>1.022081970059246</v>
+        <v>0.9971297171598816</v>
       </c>
       <c r="K21">
-        <v>1.026116101696484</v>
+        <v>1.006567292163</v>
       </c>
       <c r="L21">
-        <v>1.020759847741751</v>
+        <v>0.9941800415892734</v>
       </c>
       <c r="M21">
-        <v>1.027608316681085</v>
+        <v>0.9206407664620595</v>
       </c>
       <c r="N21">
-        <v>1.023533443691171</v>
+        <v>0.9985457557306258</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014651547624334</v>
+        <v>0.9621239029425551</v>
       </c>
       <c r="D22">
-        <v>1.021948543239114</v>
+        <v>0.9882524328190284</v>
       </c>
       <c r="E22">
-        <v>1.016522968973869</v>
+        <v>0.9756198066506695</v>
       </c>
       <c r="F22">
-        <v>1.02236537235518</v>
+        <v>0.8912984726329216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028469643431642</v>
+        <v>1.027250237755496</v>
       </c>
       <c r="J22">
-        <v>1.021645157346518</v>
+        <v>0.9946214720587407</v>
       </c>
       <c r="K22">
-        <v>1.025712798063786</v>
+        <v>1.004060259607475</v>
       </c>
       <c r="L22">
-        <v>1.020308967018603</v>
+        <v>0.991690221465329</v>
       </c>
       <c r="M22">
-        <v>1.026127967340579</v>
+        <v>0.9093817292450934</v>
       </c>
       <c r="N22">
-        <v>1.023096010654287</v>
+        <v>0.996033948633742</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015018577664565</v>
+        <v>0.9642687130906519</v>
       </c>
       <c r="D23">
-        <v>1.022232949608591</v>
+        <v>0.9899439827230185</v>
       </c>
       <c r="E23">
-        <v>1.016833046148152</v>
+        <v>0.9773074687345487</v>
       </c>
       <c r="F23">
-        <v>1.023223627595889</v>
+        <v>0.8979026746418323</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028579231195812</v>
+        <v>1.028259239085292</v>
       </c>
       <c r="J23">
-        <v>1.021876785675314</v>
+        <v>0.9959603758340353</v>
       </c>
       <c r="K23">
-        <v>1.025926722337779</v>
+        <v>1.00539981923757</v>
       </c>
       <c r="L23">
-        <v>1.020548019425556</v>
+        <v>0.9930186913072366</v>
       </c>
       <c r="M23">
-        <v>1.026913537808795</v>
+        <v>0.9154418766652574</v>
       </c>
       <c r="N23">
-        <v>1.023327967921879</v>
+        <v>0.9973747538059714</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016463337270131</v>
+        <v>0.9724352807142432</v>
       </c>
       <c r="D24">
-        <v>1.023351346985338</v>
+        <v>0.9963615963935853</v>
       </c>
       <c r="E24">
-        <v>1.018054537325214</v>
+        <v>0.9837497733947824</v>
       </c>
       <c r="F24">
-        <v>1.026585297754383</v>
+        <v>0.9218900923953831</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029005276421248</v>
+        <v>1.031989002544661</v>
       </c>
       <c r="J24">
-        <v>1.022787234543259</v>
+        <v>1.001037315656077</v>
       </c>
       <c r="K24">
-        <v>1.02676614969911</v>
+        <v>1.010452909176559</v>
       </c>
       <c r="L24">
-        <v>1.021488440709203</v>
+        <v>0.9980684002684075</v>
       </c>
       <c r="M24">
-        <v>1.029988545523612</v>
+        <v>0.9374433705021366</v>
       </c>
       <c r="N24">
-        <v>1.024239709731646</v>
+        <v>1.002458903464893</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018139523248009</v>
+        <v>0.9814134249702796</v>
       </c>
       <c r="D25">
-        <v>1.02464656477325</v>
+        <v>1.003381845470673</v>
       </c>
       <c r="E25">
-        <v>1.019473569989327</v>
+        <v>0.9908644655327626</v>
       </c>
       <c r="F25">
-        <v>1.030452273543295</v>
+        <v>0.9465161519458234</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029488608508511</v>
+        <v>1.035900818938568</v>
       </c>
       <c r="J25">
-        <v>1.023840788115297</v>
+        <v>1.006582910718448</v>
       </c>
       <c r="K25">
-        <v>1.027734563689688</v>
+        <v>1.015927888512107</v>
       </c>
       <c r="L25">
-        <v>1.022578308370808</v>
+        <v>1.003606273908159</v>
       </c>
       <c r="M25">
-        <v>1.0335217046009</v>
+        <v>0.9600056496578623</v>
       </c>
       <c r="N25">
-        <v>1.0252947594706</v>
+        <v>1.008012373908342</v>
       </c>
     </row>
   </sheetData>
